--- a/VT_Model_SUP_V01.xlsx
+++ b/VT_Model_SUP_V01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\TIMES_STUDENTS_FULL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wacla\Desktop\AGH\IERP\TIMES_STUDENTS_FULL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC73DB3-2236-46C6-B2CF-191491630067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342DFDEC-AE34-4EE6-9281-29735C6344F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="18696" tabRatio="901" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="21624" windowHeight="11112" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -784,7 +784,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="174">
   <si>
     <t>Define Commodities</t>
   </si>
@@ -1376,6 +1376,36 @@
   <si>
     <t>HYDRO</t>
   </si>
+  <si>
+    <t>HYDROGEN</t>
+  </si>
+  <si>
+    <t>Hydrogen</t>
+  </si>
+  <si>
+    <t>IMP_HYDROGEN</t>
+  </si>
+  <si>
+    <t>URANIUM</t>
+  </si>
+  <si>
+    <t>Nuclear Plant Fuel - Uranium</t>
+  </si>
+  <si>
+    <t>Hydrogen Import</t>
+  </si>
+  <si>
+    <t>MIN_PINK_HYDROGEN</t>
+  </si>
+  <si>
+    <t>Pink Hydrogen Production</t>
+  </si>
+  <si>
+    <t>MIN_GREEN_HYDROGEN</t>
+  </si>
+  <si>
+    <t>Green Hydrogen Production</t>
+  </si>
 </sst>
 </file>
 
@@ -1385,7 +1415,7 @@
     <numFmt numFmtId="164" formatCode="\Te\x\t"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1507,6 +1537,13 @@
     <font>
       <b/>
       <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
@@ -1800,14 +1837,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1968,6 +2010,26 @@
     <xf numFmtId="165" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2043,40 +2105,21 @@
     <xf numFmtId="0" fontId="18" fillId="10" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="10">
     <cellStyle name="Normal 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
+    <cellStyle name="Normal 4" xfId="6" xr:uid="{F05C0F02-0463-4EE9-AC76-5BD62B9B2EE1}"/>
     <cellStyle name="Normal_MIN" xfId="2" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
     <cellStyle name="Normal_PRC" xfId="3" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny 10" xfId="7" xr:uid="{933F17AE-892F-479A-B17F-C4331BC0C015}"/>
+    <cellStyle name="Normalny 2" xfId="8" xr:uid="{865290D4-C1CC-4CD9-A51A-B9617A81125A}"/>
+    <cellStyle name="Normalny 3" xfId="5" xr:uid="{189616F7-ECA6-44D5-89EB-92CDA85A870F}"/>
     <cellStyle name="Procentowy" xfId="4" builtinId="5"/>
+    <cellStyle name="Procentowy 2" xfId="9" xr:uid="{D64A4BCE-2ADE-4A09-9F22-E8B1A86813AF}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2580,10 +2623,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A2:I21"/>
+  <dimension ref="B2:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:E13"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2600,7 +2643,7 @@
     <col min="11" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="17.399999999999999">
+    <row r="2" spans="2:9" ht="17.399999999999999">
       <c r="B2" s="26" t="s">
         <v>0</v>
       </c>
@@ -2612,7 +2655,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="2:9">
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -2620,7 +2663,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" ht="17.399999999999999" customHeight="1">
+    <row r="4" spans="2:9" ht="17.399999999999999" customHeight="1">
       <c r="B4" s="28" t="s">
         <v>1</v>
       </c>
@@ -2632,7 +2675,7 @@
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1">
+    <row r="5" spans="2:9" ht="15.75" customHeight="1">
       <c r="B5" s="47" t="s">
         <v>2</v>
       </c>
@@ -2658,7 +2701,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="39.6">
+    <row r="6" spans="2:9" ht="39.6">
       <c r="B6" s="48" t="s">
         <v>10</v>
       </c>
@@ -2684,7 +2727,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="53.4" thickBot="1">
+    <row r="7" spans="2:9" ht="53.4" thickBot="1">
       <c r="B7" s="40" t="s">
         <v>17</v>
       </c>
@@ -2710,7 +2753,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1">
+    <row r="8" spans="2:9" ht="15.75" customHeight="1">
       <c r="B8" s="30" t="s">
         <v>24</v>
       </c>
@@ -2728,7 +2771,7 @@
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1">
+    <row r="9" spans="2:9" ht="15.75" customHeight="1">
       <c r="B9" s="34" t="s">
         <v>24</v>
       </c>
@@ -2746,7 +2789,7 @@
       <c r="H9" s="37"/>
       <c r="I9" s="37"/>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1">
+    <row r="10" spans="2:9" ht="15.75" customHeight="1">
       <c r="B10" s="30" t="s">
         <v>24</v>
       </c>
@@ -2764,7 +2807,7 @@
       <c r="H10" s="33"/>
       <c r="I10" s="33"/>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1">
+    <row r="11" spans="2:9" ht="15.75" customHeight="1">
       <c r="B11" s="34" t="s">
         <v>24</v>
       </c>
@@ -2782,26 +2825,25 @@
       <c r="H11" s="37"/>
       <c r="I11" s="37"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A12" s="98"/>
-      <c r="B12" s="99" t="s">
+    <row r="12" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B12" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="100" t="s">
+      <c r="C12" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="99" t="s">
+      <c r="D12" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="101" t="s">
+      <c r="E12" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="97"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="97"/>
-    </row>
-    <row r="13" spans="1:9" ht="13.8" thickBot="1">
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+    </row>
+    <row r="13" spans="2:9" ht="13.8" thickBot="1">
       <c r="B13" s="42" t="s">
         <v>24</v>
       </c>
@@ -2811,63 +2853,95 @@
       <c r="D13" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="E13" s="102" t="s">
+      <c r="E13" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="102"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="102"/>
-    </row>
-    <row r="16" spans="1:9" ht="13.8" thickBot="1">
-      <c r="B16" s="72" t="s">
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="E14" s="80" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="81" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="81" t="s">
+        <v>167</v>
+      </c>
+      <c r="D15" s="81" t="s">
+        <v>168</v>
+      </c>
+      <c r="E15" s="81" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="13.8" thickBot="1">
+      <c r="B17" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="72"/>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="43" t="s">
+      <c r="C17" s="84"/>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C18" s="43" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="44" t="s">
+    <row r="19" spans="2:3">
+      <c r="B19" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="C19" s="44" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="45" t="s">
+    <row r="20" spans="2:3">
+      <c r="B20" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="C20" s="45" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="44" t="s">
+    <row r="21" spans="2:3">
+      <c r="B21" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C21" s="44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="13.8" thickBot="1">
-      <c r="B21" s="46" t="s">
+    <row r="22" spans="2:3" ht="13.8" thickBot="1">
+      <c r="B22" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="46" t="s">
+      <c r="C22" s="46" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2879,10 +2953,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:P26"/>
+  <dimension ref="B2:P28"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3065,13 +3139,13 @@
       <c r="H10" s="33"/>
       <c r="I10" s="33"/>
       <c r="J10" s="33"/>
-      <c r="L10" s="74" t="s">
+      <c r="L10" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="M10" s="75"/>
-      <c r="N10" s="75"/>
-      <c r="O10" s="75"/>
-      <c r="P10" s="75"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="87"/>
+      <c r="O10" s="87"/>
+      <c r="P10" s="87"/>
     </row>
     <row r="11" spans="2:16" ht="15.75" customHeight="1">
       <c r="B11" s="34" t="s">
@@ -3093,11 +3167,11 @@
       <c r="H11" s="37"/>
       <c r="I11" s="37"/>
       <c r="J11" s="37"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="75"/>
-      <c r="N11" s="75"/>
-      <c r="O11" s="75"/>
-      <c r="P11" s="75"/>
+      <c r="L11" s="87"/>
+      <c r="M11" s="87"/>
+      <c r="N11" s="87"/>
+      <c r="O11" s="87"/>
+      <c r="P11" s="87"/>
     </row>
     <row r="12" spans="2:16" ht="15.75" customHeight="1">
       <c r="B12" s="30" t="s">
@@ -3123,148 +3197,169 @@
       <c r="J12" s="33"/>
     </row>
     <row r="13" spans="2:16" ht="15.75" customHeight="1">
-      <c r="B13" s="103" t="s">
+      <c r="B13" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="104" t="s">
+      <c r="C13" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="105" t="s">
+      <c r="D13" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="E13" s="105" t="s">
+      <c r="E13" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="F13" s="106" t="s">
+      <c r="F13" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106" t="s">
+      <c r="G13" s="37"/>
+      <c r="H13" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="I13" s="106"/>
-      <c r="J13" s="106"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
     </row>
     <row r="14" spans="2:16" ht="13.8" thickBot="1">
-      <c r="B14" s="107" t="s">
+      <c r="B14" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="107" t="s">
+      <c r="C14" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="107" t="s">
+      <c r="D14" s="75" t="s">
         <v>162</v>
       </c>
-      <c r="E14" s="107" t="s">
+      <c r="E14" s="75" t="s">
         <v>160</v>
       </c>
-      <c r="F14" s="107" t="s">
+      <c r="F14" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="108"/>
-      <c r="H14" s="108"/>
-      <c r="I14" s="108"/>
-      <c r="J14" s="108"/>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="73" t="s">
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+    </row>
+    <row r="15" spans="2:16">
+      <c r="B15" s="81"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+    </row>
+    <row r="16" spans="2:16">
+      <c r="B16" s="81"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="81"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="85" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="45" t="s">
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="C20" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="D18" s="45"/>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="44" t="s">
+      <c r="D20" s="45"/>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="44" t="s">
+      <c r="C21" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="44"/>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="45" t="s">
+      <c r="D21" s="44"/>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="45" t="s">
+      <c r="C22" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="45"/>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="44" t="s">
+      <c r="D22" s="45"/>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="44" t="s">
+      <c r="C23" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="44"/>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="45" t="s">
+      <c r="D23" s="44"/>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="45" t="s">
+      <c r="C24" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="D22" s="45" t="s">
+      <c r="D24" s="45" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="44" t="s">
+    <row r="25" spans="2:6">
+      <c r="B25" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="44" t="s">
+      <c r="C25" s="44" t="s">
         <v>100</v>
-      </c>
-      <c r="D23" s="44" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="45" t="s">
-        <v>102</v>
-      </c>
-      <c r="C24" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="D24" s="45" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="44" t="s">
-        <v>105</v>
       </c>
       <c r="D25" s="44" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="13.8" thickBot="1">
-      <c r="B26" s="46" t="s">
+    <row r="26" spans="2:6">
+      <c r="B26" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" s="45" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="44" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="13.8" thickBot="1">
+      <c r="B28" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="46" t="s">
+      <c r="C28" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="D26" s="46"/>
+      <c r="D28" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="L10:P11"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -3277,10 +3372,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B2:AK29"/>
+  <dimension ref="B2:AK31"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="Z18" sqref="Z18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3461,11 +3556,11 @@
         <v>159</v>
       </c>
       <c r="I6" s="12"/>
-      <c r="J6" s="91" t="s">
+      <c r="J6" s="103" t="s">
         <v>142</v>
       </c>
-      <c r="K6" s="92"/>
-      <c r="L6" s="93"/>
+      <c r="K6" s="104"/>
+      <c r="L6" s="105"/>
       <c r="N6" s="48" t="s">
         <v>138</v>
       </c>
@@ -3475,33 +3570,33 @@
       <c r="P6" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="Q6" s="90" t="s">
+      <c r="Q6" s="102" t="s">
         <v>140</v>
       </c>
-      <c r="R6" s="76"/>
-      <c r="S6" s="76"/>
-      <c r="T6" s="76"/>
-      <c r="U6" s="76"/>
-      <c r="V6" s="76"/>
-      <c r="W6" s="77"/>
-      <c r="X6" s="76" t="s">
+      <c r="R6" s="88"/>
+      <c r="S6" s="88"/>
+      <c r="T6" s="88"/>
+      <c r="U6" s="88"/>
+      <c r="V6" s="88"/>
+      <c r="W6" s="89"/>
+      <c r="X6" s="88" t="s">
         <v>157</v>
       </c>
-      <c r="Y6" s="76"/>
-      <c r="Z6" s="76"/>
-      <c r="AA6" s="76"/>
-      <c r="AB6" s="76"/>
-      <c r="AC6" s="76"/>
-      <c r="AD6" s="77"/>
-      <c r="AE6" s="76" t="s">
+      <c r="Y6" s="88"/>
+      <c r="Z6" s="88"/>
+      <c r="AA6" s="88"/>
+      <c r="AB6" s="88"/>
+      <c r="AC6" s="88"/>
+      <c r="AD6" s="89"/>
+      <c r="AE6" s="88" t="s">
         <v>159</v>
       </c>
-      <c r="AF6" s="76"/>
-      <c r="AG6" s="76"/>
-      <c r="AH6" s="76"/>
-      <c r="AI6" s="76"/>
-      <c r="AJ6" s="76"/>
-      <c r="AK6" s="77"/>
+      <c r="AF6" s="88"/>
+      <c r="AG6" s="88"/>
+      <c r="AH6" s="88"/>
+      <c r="AI6" s="88"/>
+      <c r="AJ6" s="88"/>
+      <c r="AK6" s="89"/>
     </row>
     <row r="7" spans="2:37" ht="47.25" customHeight="1" thickBot="1">
       <c r="B7" s="40" t="s">
@@ -3526,9 +3621,9 @@
         <v>148</v>
       </c>
       <c r="I7" s="12"/>
-      <c r="J7" s="94"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="96"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="107"/>
+      <c r="L7" s="108"/>
       <c r="N7" s="40" t="s">
         <v>143</v>
       </c>
@@ -3538,33 +3633,33 @@
       <c r="P7" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="Q7" s="78" t="s">
+      <c r="Q7" s="90" t="s">
         <v>145</v>
       </c>
-      <c r="R7" s="79"/>
-      <c r="S7" s="79"/>
-      <c r="T7" s="79"/>
-      <c r="U7" s="79"/>
-      <c r="V7" s="79"/>
-      <c r="W7" s="80"/>
-      <c r="X7" s="78" t="s">
+      <c r="R7" s="91"/>
+      <c r="S7" s="91"/>
+      <c r="T7" s="91"/>
+      <c r="U7" s="91"/>
+      <c r="V7" s="91"/>
+      <c r="W7" s="92"/>
+      <c r="X7" s="90" t="s">
         <v>146</v>
       </c>
-      <c r="Y7" s="79"/>
-      <c r="Z7" s="79"/>
-      <c r="AA7" s="79"/>
-      <c r="AB7" s="79"/>
-      <c r="AC7" s="79"/>
-      <c r="AD7" s="80"/>
-      <c r="AE7" s="78" t="s">
+      <c r="Y7" s="91"/>
+      <c r="Z7" s="91"/>
+      <c r="AA7" s="91"/>
+      <c r="AB7" s="91"/>
+      <c r="AC7" s="91"/>
+      <c r="AD7" s="92"/>
+      <c r="AE7" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="AF7" s="79"/>
-      <c r="AG7" s="79"/>
-      <c r="AH7" s="79"/>
-      <c r="AI7" s="79"/>
-      <c r="AJ7" s="79"/>
-      <c r="AK7" s="80"/>
+      <c r="AF7" s="91"/>
+      <c r="AG7" s="91"/>
+      <c r="AH7" s="91"/>
+      <c r="AI7" s="91"/>
+      <c r="AJ7" s="91"/>
+      <c r="AK7" s="92"/>
     </row>
     <row r="8" spans="2:37" ht="15.75" customHeight="1">
       <c r="B8" s="13" t="str">
@@ -3585,11 +3680,11 @@
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
-      <c r="J8" s="81" t="s">
+      <c r="J8" s="93" t="s">
         <v>149</v>
       </c>
-      <c r="K8" s="82"/>
-      <c r="L8" s="83"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="95"/>
       <c r="N8" s="13" t="str">
         <f>B8</f>
         <v>MIN_HC</v>
@@ -3663,9 +3758,9 @@
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="86"/>
+      <c r="J9" s="96"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="98"/>
       <c r="N9" s="19" t="str">
         <f t="shared" ref="N9:N13" si="2">B9</f>
         <v>MIN_BC</v>
@@ -3739,9 +3834,9 @@
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
-      <c r="J10" s="84"/>
-      <c r="K10" s="85"/>
-      <c r="L10" s="86"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="97"/>
+      <c r="L10" s="98"/>
       <c r="N10" s="13" t="str">
         <f t="shared" si="2"/>
         <v>MIN_NAT-GAS</v>
@@ -3815,9 +3910,9 @@
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
-      <c r="J11" s="84"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="86"/>
+      <c r="J11" s="96"/>
+      <c r="K11" s="97"/>
+      <c r="L11" s="98"/>
       <c r="N11" s="19" t="str">
         <f t="shared" si="2"/>
         <v>IMP_NAT-GAS</v>
@@ -3891,9 +3986,9 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="85"/>
-      <c r="L12" s="86"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="97"/>
+      <c r="L12" s="98"/>
       <c r="N12" s="13" t="str">
         <f t="shared" si="2"/>
         <v>MIN_WIND-ON</v>
@@ -3943,27 +4038,27 @@
       <c r="AK12" s="14"/>
     </row>
     <row r="13" spans="2:37" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B13" s="110" t="str">
+      <c r="B13" s="19" t="str">
         <f>SEC_Processes!D13</f>
         <v>MIN_SOLAR</v>
       </c>
-      <c r="C13" s="110" t="str">
+      <c r="C13" s="19" t="str">
         <f>SEC_Processes!E13</f>
         <v>Solar</v>
       </c>
-      <c r="D13" s="111" t="str">
+      <c r="D13" s="78" t="str">
         <f>SEC_Comm!C12</f>
         <v>SOLAR</v>
       </c>
-      <c r="E13" s="112">
+      <c r="E13" s="79">
         <v>1E-3</v>
       </c>
-      <c r="F13" s="113"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="113"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="88"/>
-      <c r="L13" s="89"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="100"/>
+      <c r="L13" s="101"/>
       <c r="N13" s="23" t="str">
         <f t="shared" si="2"/>
         <v>MIN_SOLAR</v>
@@ -4013,190 +4108,264 @@
       <c r="AK13" s="25"/>
     </row>
     <row r="14" spans="2:37" ht="13.8" thickBot="1">
-      <c r="B14" s="109" t="str">
+      <c r="B14" s="77" t="str">
         <f>SEC_Processes!D14</f>
         <v>MIN_HYDRO</v>
       </c>
-      <c r="C14" s="109" t="str">
+      <c r="C14" s="77" t="str">
         <f>SEC_Processes!E14</f>
         <v>Hydro</v>
       </c>
-      <c r="D14" s="109" t="str">
+      <c r="D14" s="77" t="str">
         <f>SEC_Comm!C13</f>
         <v>HYDRO</v>
       </c>
-      <c r="E14" s="109">
+      <c r="E14" s="77">
         <v>1E-3</v>
       </c>
-      <c r="F14" s="109"/>
-      <c r="G14" s="109"/>
-      <c r="H14" s="109"/>
-    </row>
-    <row r="17" spans="2:7" ht="17.399999999999999">
-      <c r="B17" s="8" t="s">
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="N14" s="109" t="s">
+        <v>166</v>
+      </c>
+      <c r="O14" s="109" t="s">
+        <v>169</v>
+      </c>
+      <c r="P14" s="109" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q14" s="111">
+        <v>68</v>
+      </c>
+      <c r="R14" s="111">
+        <v>66.7</v>
+      </c>
+      <c r="S14" s="111">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="T14" s="111">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="U14" s="111">
+        <v>62.8</v>
+      </c>
+      <c r="V14" s="111">
+        <v>61.5</v>
+      </c>
+      <c r="W14" s="111">
+        <v>60.2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:37">
+      <c r="B15" s="81"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="N15" s="109" t="s">
+        <v>170</v>
+      </c>
+      <c r="O15" s="109" t="s">
+        <v>171</v>
+      </c>
+      <c r="P15" s="109" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q15" s="110">
+        <v>120</v>
+      </c>
+      <c r="R15">
+        <v>116.7</v>
+      </c>
+      <c r="S15" s="110">
+        <v>113.4</v>
+      </c>
+      <c r="T15">
+        <v>110.1</v>
+      </c>
+      <c r="U15" s="110">
+        <v>106.8</v>
+      </c>
+      <c r="V15">
+        <v>103.5</v>
+      </c>
+      <c r="W15" s="110">
+        <v>100.2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:37">
+      <c r="B16" s="81"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="82"/>
+      <c r="N16" s="109" t="s">
+        <v>172</v>
+      </c>
+      <c r="O16" s="109" t="s">
+        <v>173</v>
+      </c>
+      <c r="P16" s="109" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q16" s="111">
+        <v>95</v>
+      </c>
+      <c r="R16">
+        <v>93.3</v>
+      </c>
+      <c r="S16" s="111">
+        <v>91.6</v>
+      </c>
+      <c r="T16">
+        <v>89.9</v>
+      </c>
+      <c r="U16" s="111">
+        <v>88.2</v>
+      </c>
+      <c r="V16">
+        <v>86.5</v>
+      </c>
+      <c r="W16" s="111">
+        <v>84.8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="81"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="83"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="81"/>
+    </row>
+    <row r="19" spans="2:7" ht="17.399999999999999">
+      <c r="B19" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="47" t="s">
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="47" t="s">
+      <c r="C21" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="D19" s="47" t="s">
+      <c r="D21" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="E19" s="47" t="s">
+      <c r="E21" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="F19" s="47" t="s">
+      <c r="F21" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="47" t="s">
+      <c r="G21" s="47" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="39.6">
-      <c r="B20" s="48" t="s">
+    <row r="22" spans="2:7" ht="39.6">
+      <c r="B22" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="C20" s="48" t="s">
+      <c r="C22" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="48" t="s">
+      <c r="D22" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="E20" s="48" t="s">
+      <c r="E22" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="F20" s="48" t="s">
+      <c r="F22" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="G20" s="48" t="s">
+      <c r="G22" s="48" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="53.4" thickBot="1">
-      <c r="B21" s="40" t="s">
+    <row r="23" spans="2:7" ht="53.4" thickBot="1">
+      <c r="B23" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C23" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="D23" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="E21" s="40" t="s">
+      <c r="E23" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="F21" s="40" t="s">
+      <c r="F23" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="G21" s="40" t="s">
+      <c r="G23" s="40" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="13" t="str">
+    <row r="24" spans="2:7">
+      <c r="B24" s="13" t="str">
         <f>B8</f>
         <v>MIN_HC</v>
       </c>
-      <c r="C22" s="13" t="str">
+      <c r="C24" s="13" t="str">
         <f>C8</f>
         <v>Hard Coal Domestic Supply</v>
       </c>
-      <c r="D22" s="17" t="str">
+      <c r="D24" s="17" t="str">
         <f>D8</f>
         <v>HC</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E24" s="15">
         <f>E8</f>
         <v>15</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F24" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="G22" s="14"/>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="14" t="s">
+      <c r="G24" s="14"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="G23" s="53"/>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="14" t="s">
+      <c r="G25" s="53"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="G24" s="53"/>
-    </row>
-    <row r="25" spans="2:7">
-      <c r="B25" s="19" t="str">
-        <f t="shared" ref="B25:E29" si="8">B9</f>
+      <c r="G26" s="53"/>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="19" t="str">
+        <f t="shared" ref="B27:E31" si="8">B9</f>
         <v>MIN_BC</v>
       </c>
-      <c r="C25" s="19" t="str">
+      <c r="C27" s="19" t="str">
         <f t="shared" si="8"/>
         <v>Brown Coal Domestic Supply</v>
       </c>
-      <c r="D25" s="20" t="str">
+      <c r="D27" s="20" t="str">
         <f t="shared" si="8"/>
         <v>BC</v>
       </c>
-      <c r="E25" s="22">
+      <c r="E27" s="22">
         <f t="shared" si="8"/>
         <v>7</v>
-      </c>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="B26" s="13" t="str">
-        <f t="shared" si="8"/>
-        <v>MIN_NAT-GAS</v>
-      </c>
-      <c r="C26" s="13" t="str">
-        <f t="shared" si="8"/>
-        <v>Natural Gas Domestic Supply</v>
-      </c>
-      <c r="D26" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>NAT-GAS</v>
-      </c>
-      <c r="E26" s="15">
-        <f t="shared" si="8"/>
-        <v>28</v>
-      </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-    </row>
-    <row r="27" spans="2:7">
-      <c r="B27" s="19" t="str">
-        <f t="shared" si="8"/>
-        <v>IMP_NAT-GAS</v>
-      </c>
-      <c r="C27" s="19" t="str">
-        <f t="shared" si="8"/>
-        <v>Natural Gas Imports</v>
-      </c>
-      <c r="D27" s="20" t="str">
-        <f t="shared" si="8"/>
-        <v>NAT-GAS</v>
-      </c>
-      <c r="E27" s="22">
-        <f t="shared" si="8"/>
-        <v>30</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
@@ -4204,42 +4373,82 @@
     <row r="28" spans="2:7">
       <c r="B28" s="13" t="str">
         <f t="shared" si="8"/>
-        <v>MIN_WIND-ON</v>
+        <v>MIN_NAT-GAS</v>
       </c>
       <c r="C28" s="13" t="str">
         <f t="shared" si="8"/>
+        <v>Natural Gas Domestic Supply</v>
+      </c>
+      <c r="D28" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v>NAT-GAS</v>
+      </c>
+      <c r="E28" s="15">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="19" t="str">
+        <f t="shared" si="8"/>
+        <v>IMP_NAT-GAS</v>
+      </c>
+      <c r="C29" s="19" t="str">
+        <f t="shared" si="8"/>
+        <v>Natural Gas Imports</v>
+      </c>
+      <c r="D29" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v>NAT-GAS</v>
+      </c>
+      <c r="E29" s="22">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="13" t="str">
+        <f t="shared" si="8"/>
+        <v>MIN_WIND-ON</v>
+      </c>
+      <c r="C30" s="13" t="str">
+        <f t="shared" si="8"/>
         <v>Wind Onshore</v>
       </c>
-      <c r="D28" s="17" t="str">
+      <c r="D30" s="17" t="str">
         <f t="shared" si="8"/>
         <v>WIND-ON</v>
       </c>
-      <c r="E28" s="51">
+      <c r="E30" s="51">
         <f t="shared" si="8"/>
         <v>1E-3</v>
       </c>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-    </row>
-    <row r="29" spans="2:7" ht="13.8" thickBot="1">
-      <c r="B29" s="23" t="str">
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+    </row>
+    <row r="31" spans="2:7" ht="13.8" thickBot="1">
+      <c r="B31" s="23" t="str">
         <f t="shared" si="8"/>
         <v>MIN_SOLAR</v>
       </c>
-      <c r="C29" s="23" t="str">
+      <c r="C31" s="23" t="str">
         <f t="shared" si="8"/>
         <v>Solar</v>
       </c>
-      <c r="D29" s="24" t="str">
+      <c r="D31" s="24" t="str">
         <f t="shared" si="8"/>
         <v>SOLAR</v>
       </c>
-      <c r="E29" s="52">
+      <c r="E31" s="52">
         <f t="shared" si="8"/>
         <v>1E-3</v>
       </c>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4271,15 +4480,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -4474,6 +4674,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
   <ds:schemaRefs>
@@ -4486,14 +4695,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAC355B7-8157-4E07-97CC-79D51A4B7186}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4510,4 +4711,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/VT_Model_SUP_V01.xlsx
+++ b/VT_Model_SUP_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wacla\Desktop\AGH\IERP\TIMES_STUDENTS_FULL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342DFDEC-AE34-4EE6-9281-29735C6344F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E9AB6D-FFFA-4A2D-A0CC-0C9E5C9E49A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="21624" windowHeight="11112" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="21624" windowHeight="11112" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -784,7 +784,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="164">
   <si>
     <t>Define Commodities</t>
   </si>
@@ -1375,36 +1375,6 @@
   </si>
   <si>
     <t>HYDRO</t>
-  </si>
-  <si>
-    <t>HYDROGEN</t>
-  </si>
-  <si>
-    <t>Hydrogen</t>
-  </si>
-  <si>
-    <t>IMP_HYDROGEN</t>
-  </si>
-  <si>
-    <t>URANIUM</t>
-  </si>
-  <si>
-    <t>Nuclear Plant Fuel - Uranium</t>
-  </si>
-  <si>
-    <t>Hydrogen Import</t>
-  </si>
-  <si>
-    <t>MIN_PINK_HYDROGEN</t>
-  </si>
-  <si>
-    <t>Pink Hydrogen Production</t>
-  </si>
-  <si>
-    <t>MIN_GREEN_HYDROGEN</t>
-  </si>
-  <si>
-    <t>Green Hydrogen Production</t>
   </si>
 </sst>
 </file>
@@ -2030,84 +2000,84 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="13" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="13" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Normal 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
@@ -2626,7 +2596,7 @@
   <dimension ref="B2:I22"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2862,42 +2832,26 @@
       <c r="I13" s="73"/>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="E14" s="80" t="s">
-        <v>27</v>
-      </c>
+      <c r="B14" s="34"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="80"/>
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
       <c r="H14" s="38"/>
       <c r="I14" s="38"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="81" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="81" t="s">
-        <v>167</v>
-      </c>
-      <c r="D15" s="81" t="s">
-        <v>168</v>
-      </c>
-      <c r="E15" s="81" t="s">
-        <v>27</v>
-      </c>
+      <c r="B15" s="81"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
     </row>
     <row r="17" spans="2:3" ht="13.8" thickBot="1">
-      <c r="B17" s="84" t="s">
+      <c r="B17" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="84"/>
+      <c r="C17" s="87"/>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="43" t="s">
@@ -3139,13 +3093,13 @@
       <c r="H10" s="33"/>
       <c r="I10" s="33"/>
       <c r="J10" s="33"/>
-      <c r="L10" s="86" t="s">
+      <c r="L10" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="M10" s="87"/>
-      <c r="N10" s="87"/>
-      <c r="O10" s="87"/>
-      <c r="P10" s="87"/>
+      <c r="M10" s="90"/>
+      <c r="N10" s="90"/>
+      <c r="O10" s="90"/>
+      <c r="P10" s="90"/>
     </row>
     <row r="11" spans="2:16" ht="15.75" customHeight="1">
       <c r="B11" s="34" t="s">
@@ -3167,11 +3121,11 @@
       <c r="H11" s="37"/>
       <c r="I11" s="37"/>
       <c r="J11" s="37"/>
-      <c r="L11" s="87"/>
-      <c r="M11" s="87"/>
-      <c r="N11" s="87"/>
-      <c r="O11" s="87"/>
-      <c r="P11" s="87"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="90"/>
+      <c r="N11" s="90"/>
+      <c r="O11" s="90"/>
+      <c r="P11" s="90"/>
     </row>
     <row r="12" spans="2:16" ht="15.75" customHeight="1">
       <c r="B12" s="30" t="s">
@@ -3262,11 +3216,11 @@
       <c r="F17" s="81"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="85" t="s">
+      <c r="B19" s="88" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="85"/>
-      <c r="D19" s="85"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="88"/>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="45" t="s">
@@ -3374,8 +3328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:AK31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="Z18" sqref="Z18"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3556,11 +3510,11 @@
         <v>159</v>
       </c>
       <c r="I6" s="12"/>
-      <c r="J6" s="103" t="s">
+      <c r="J6" s="106" t="s">
         <v>142</v>
       </c>
-      <c r="K6" s="104"/>
-      <c r="L6" s="105"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="108"/>
       <c r="N6" s="48" t="s">
         <v>138</v>
       </c>
@@ -3570,33 +3524,33 @@
       <c r="P6" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="Q6" s="102" t="s">
+      <c r="Q6" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="R6" s="88"/>
-      <c r="S6" s="88"/>
-      <c r="T6" s="88"/>
-      <c r="U6" s="88"/>
-      <c r="V6" s="88"/>
-      <c r="W6" s="89"/>
-      <c r="X6" s="88" t="s">
+      <c r="R6" s="91"/>
+      <c r="S6" s="91"/>
+      <c r="T6" s="91"/>
+      <c r="U6" s="91"/>
+      <c r="V6" s="91"/>
+      <c r="W6" s="92"/>
+      <c r="X6" s="91" t="s">
         <v>157</v>
       </c>
-      <c r="Y6" s="88"/>
-      <c r="Z6" s="88"/>
-      <c r="AA6" s="88"/>
-      <c r="AB6" s="88"/>
-      <c r="AC6" s="88"/>
-      <c r="AD6" s="89"/>
-      <c r="AE6" s="88" t="s">
+      <c r="Y6" s="91"/>
+      <c r="Z6" s="91"/>
+      <c r="AA6" s="91"/>
+      <c r="AB6" s="91"/>
+      <c r="AC6" s="91"/>
+      <c r="AD6" s="92"/>
+      <c r="AE6" s="91" t="s">
         <v>159</v>
       </c>
-      <c r="AF6" s="88"/>
-      <c r="AG6" s="88"/>
-      <c r="AH6" s="88"/>
-      <c r="AI6" s="88"/>
-      <c r="AJ6" s="88"/>
-      <c r="AK6" s="89"/>
+      <c r="AF6" s="91"/>
+      <c r="AG6" s="91"/>
+      <c r="AH6" s="91"/>
+      <c r="AI6" s="91"/>
+      <c r="AJ6" s="91"/>
+      <c r="AK6" s="92"/>
     </row>
     <row r="7" spans="2:37" ht="47.25" customHeight="1" thickBot="1">
       <c r="B7" s="40" t="s">
@@ -3621,9 +3575,9 @@
         <v>148</v>
       </c>
       <c r="I7" s="12"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="108"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="110"/>
+      <c r="L7" s="111"/>
       <c r="N7" s="40" t="s">
         <v>143</v>
       </c>
@@ -3633,33 +3587,33 @@
       <c r="P7" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="Q7" s="90" t="s">
+      <c r="Q7" s="93" t="s">
         <v>145</v>
       </c>
-      <c r="R7" s="91"/>
-      <c r="S7" s="91"/>
-      <c r="T7" s="91"/>
-      <c r="U7" s="91"/>
-      <c r="V7" s="91"/>
-      <c r="W7" s="92"/>
-      <c r="X7" s="90" t="s">
+      <c r="R7" s="94"/>
+      <c r="S7" s="94"/>
+      <c r="T7" s="94"/>
+      <c r="U7" s="94"/>
+      <c r="V7" s="94"/>
+      <c r="W7" s="95"/>
+      <c r="X7" s="93" t="s">
         <v>146</v>
       </c>
-      <c r="Y7" s="91"/>
-      <c r="Z7" s="91"/>
-      <c r="AA7" s="91"/>
-      <c r="AB7" s="91"/>
-      <c r="AC7" s="91"/>
-      <c r="AD7" s="92"/>
-      <c r="AE7" s="90" t="s">
+      <c r="Y7" s="94"/>
+      <c r="Z7" s="94"/>
+      <c r="AA7" s="94"/>
+      <c r="AB7" s="94"/>
+      <c r="AC7" s="94"/>
+      <c r="AD7" s="95"/>
+      <c r="AE7" s="93" t="s">
         <v>148</v>
       </c>
-      <c r="AF7" s="91"/>
-      <c r="AG7" s="91"/>
-      <c r="AH7" s="91"/>
-      <c r="AI7" s="91"/>
-      <c r="AJ7" s="91"/>
-      <c r="AK7" s="92"/>
+      <c r="AF7" s="94"/>
+      <c r="AG7" s="94"/>
+      <c r="AH7" s="94"/>
+      <c r="AI7" s="94"/>
+      <c r="AJ7" s="94"/>
+      <c r="AK7" s="95"/>
     </row>
     <row r="8" spans="2:37" ht="15.75" customHeight="1">
       <c r="B8" s="13" t="str">
@@ -3680,11 +3634,11 @@
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
-      <c r="J8" s="93" t="s">
+      <c r="J8" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="K8" s="94"/>
-      <c r="L8" s="95"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="98"/>
       <c r="N8" s="13" t="str">
         <f>B8</f>
         <v>MIN_HC</v>
@@ -3758,9 +3712,9 @@
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
-      <c r="J9" s="96"/>
-      <c r="K9" s="97"/>
-      <c r="L9" s="98"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="101"/>
       <c r="N9" s="19" t="str">
         <f t="shared" ref="N9:N13" si="2">B9</f>
         <v>MIN_BC</v>
@@ -3834,9 +3788,9 @@
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
-      <c r="J10" s="96"/>
-      <c r="K10" s="97"/>
-      <c r="L10" s="98"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="101"/>
       <c r="N10" s="13" t="str">
         <f t="shared" si="2"/>
         <v>MIN_NAT-GAS</v>
@@ -3910,9 +3864,9 @@
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
-      <c r="J11" s="96"/>
-      <c r="K11" s="97"/>
-      <c r="L11" s="98"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="101"/>
       <c r="N11" s="19" t="str">
         <f t="shared" si="2"/>
         <v>IMP_NAT-GAS</v>
@@ -3986,9 +3940,9 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="J12" s="96"/>
-      <c r="K12" s="97"/>
-      <c r="L12" s="98"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="101"/>
       <c r="N12" s="13" t="str">
         <f t="shared" si="2"/>
         <v>MIN_WIND-ON</v>
@@ -4056,9 +4010,9 @@
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="100"/>
-      <c r="L13" s="101"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="104"/>
       <c r="N13" s="23" t="str">
         <f t="shared" si="2"/>
         <v>MIN_SOLAR</v>
@@ -4126,36 +4080,16 @@
       <c r="F14" s="77"/>
       <c r="G14" s="77"/>
       <c r="H14" s="77"/>
-      <c r="N14" s="109" t="s">
-        <v>166</v>
-      </c>
-      <c r="O14" s="109" t="s">
-        <v>169</v>
-      </c>
-      <c r="P14" s="109" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q14" s="111">
-        <v>68</v>
-      </c>
-      <c r="R14" s="111">
-        <v>66.7</v>
-      </c>
-      <c r="S14" s="111">
-        <v>65.400000000000006</v>
-      </c>
-      <c r="T14" s="111">
-        <v>64.099999999999994</v>
-      </c>
-      <c r="U14" s="111">
-        <v>62.8</v>
-      </c>
-      <c r="V14" s="111">
-        <v>61.5</v>
-      </c>
-      <c r="W14" s="111">
-        <v>60.2</v>
-      </c>
+      <c r="N14" s="84"/>
+      <c r="O14" s="84"/>
+      <c r="P14" s="84"/>
+      <c r="Q14" s="86"/>
+      <c r="R14" s="86"/>
+      <c r="S14" s="86"/>
+      <c r="T14" s="86"/>
+      <c r="U14" s="86"/>
+      <c r="V14" s="86"/>
+      <c r="W14" s="86"/>
     </row>
     <row r="15" spans="2:37">
       <c r="B15" s="81"/>
@@ -4165,72 +4099,26 @@
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
-      <c r="N15" s="109" t="s">
-        <v>170</v>
-      </c>
-      <c r="O15" s="109" t="s">
-        <v>171</v>
-      </c>
-      <c r="P15" s="109" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q15" s="110">
-        <v>120</v>
-      </c>
-      <c r="R15">
-        <v>116.7</v>
-      </c>
-      <c r="S15" s="110">
-        <v>113.4</v>
-      </c>
-      <c r="T15">
-        <v>110.1</v>
-      </c>
-      <c r="U15" s="110">
-        <v>106.8</v>
-      </c>
-      <c r="V15">
-        <v>103.5</v>
-      </c>
-      <c r="W15" s="110">
-        <v>100.2</v>
-      </c>
+      <c r="N15" s="84"/>
+      <c r="O15" s="84"/>
+      <c r="P15" s="84"/>
+      <c r="Q15" s="85"/>
+      <c r="S15" s="85"/>
+      <c r="U15" s="85"/>
+      <c r="W15" s="85"/>
     </row>
     <row r="16" spans="2:37">
       <c r="B16" s="81"/>
       <c r="C16" s="81"/>
       <c r="D16" s="34"/>
       <c r="E16" s="82"/>
-      <c r="N16" s="109" t="s">
-        <v>172</v>
-      </c>
-      <c r="O16" s="109" t="s">
-        <v>173</v>
-      </c>
-      <c r="P16" s="109" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q16" s="111">
-        <v>95</v>
-      </c>
-      <c r="R16">
-        <v>93.3</v>
-      </c>
-      <c r="S16" s="111">
-        <v>91.6</v>
-      </c>
-      <c r="T16">
-        <v>89.9</v>
-      </c>
-      <c r="U16" s="111">
-        <v>88.2</v>
-      </c>
-      <c r="V16">
-        <v>86.5</v>
-      </c>
-      <c r="W16" s="111">
-        <v>84.8</v>
-      </c>
+      <c r="N16" s="84"/>
+      <c r="O16" s="84"/>
+      <c r="P16" s="84"/>
+      <c r="Q16" s="86"/>
+      <c r="S16" s="86"/>
+      <c r="U16" s="86"/>
+      <c r="W16" s="86"/>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="81"/>
@@ -4480,6 +4368,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -4674,15 +4571,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
   <ds:schemaRefs>
@@ -4695,6 +4583,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAC355B7-8157-4E07-97CC-79D51A4B7186}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4711,12 +4607,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>